--- a/data/trans_orig/P07B_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P07B_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04FEF192-46BA-45B2-921B-6A9CDE5ED7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89A2D334-50D7-408E-A006-4361D7B003C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{94BBA1BE-6CCF-4C9E-91CE-C1A3736C8C94}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4BC638B0-6D19-4E65-94AC-5EB4554380D8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="403">
   <si>
     <t>Población según salud mental autopercibida en 2023 (Tasa respuesta: 99,99%)</t>
   </si>
@@ -83,1114 +83,1114 @@
     <t>0,16%</t>
   </si>
   <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>Buena</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>Muy buena</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>2,46%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>Buena</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>Muy buena</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>Excelente</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
   </si>
   <si>
     <t>7,03%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
   </si>
   <si>
     <t>44,23%</t>
   </si>
   <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
   </si>
   <si>
     <t>47,27%</t>
   </si>
   <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
   </si>
   <si>
     <t>45,85%</t>
   </si>
   <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
   </si>
   <si>
     <t>33,64%</t>
@@ -1199,52 +1199,49 @@
     <t>31,31%</t>
   </si>
   <si>
-    <t>35,44%</t>
+    <t>35,71%</t>
   </si>
   <si>
     <t>31,02%</t>
   </si>
   <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
   </si>
   <si>
     <t>32,25%</t>
   </si>
   <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
+    <t>33,66%</t>
   </si>
   <si>
     <t>15,74%</t>
   </si>
   <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
   </si>
   <si>
     <t>11,86%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1659,7 +1656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED6A51F-4976-415E-B515-33275C3635D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FCFA0E-0A8B-4DA5-9DE8-D4F19C64561E}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2106,13 +2103,13 @@
         <v>3718</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2121,13 +2118,13 @@
         <v>5129</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,13 +2139,13 @@
         <v>25910</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>44</v>
@@ -2157,13 +2154,13 @@
         <v>31655</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
@@ -2172,13 +2169,13 @@
         <v>57565</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,13 +2190,13 @@
         <v>125121</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="H12" s="7">
         <v>252</v>
@@ -2208,13 +2205,13 @@
         <v>179583</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>356</v>
@@ -2223,13 +2220,13 @@
         <v>304704</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,13 +2241,13 @@
         <v>259821</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>338</v>
@@ -2259,13 +2256,13 @@
         <v>270849</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>531</v>
@@ -2274,13 +2271,13 @@
         <v>530671</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,13 +2292,13 @@
         <v>107034</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>78</v>
@@ -2310,13 +2307,13 @@
         <v>68761</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>143</v>
@@ -2325,13 +2322,13 @@
         <v>175795</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,7 +2384,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2399,13 +2396,13 @@
         <v>3271</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2414,10 +2411,10 @@
         <v>4611</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>108</v>
@@ -2570,10 +2567,10 @@
         <v>133</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M19" s="7">
         <v>475</v>
@@ -2582,13 +2579,13 @@
         <v>374662</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,13 +2600,13 @@
         <v>41353</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -2618,13 +2615,13 @@
         <v>36224</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>76</v>
@@ -2633,13 +2630,13 @@
         <v>77576</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,7 +2692,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2707,13 +2704,13 @@
         <v>4722</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -2722,10 +2719,10 @@
         <v>12760</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>153</v>
@@ -2737,13 +2734,13 @@
         <v>17482</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,13 +2755,13 @@
         <v>30935</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>65</v>
@@ -2773,13 +2770,13 @@
         <v>51394</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>94</v>
@@ -2788,13 +2785,13 @@
         <v>82329</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,13 +2806,13 @@
         <v>110130</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>230</v>
@@ -2824,13 +2821,13 @@
         <v>135429</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>341</v>
@@ -2839,13 +2836,13 @@
         <v>245559</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,13 +2857,13 @@
         <v>101155</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>188</v>
@@ -2875,13 +2872,13 @@
         <v>127863</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>279</v>
@@ -2890,13 +2887,13 @@
         <v>229018</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,10 +2908,10 @@
         <v>75298</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>185</v>
@@ -2932,7 +2929,7 @@
         <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>153</v>
@@ -2941,13 +2938,13 @@
         <v>176408</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,7 +3000,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3015,7 +3012,7 @@
         <v>1257</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
@@ -3069,10 +3066,10 @@
         <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>35</v>
@@ -3081,13 +3078,13 @@
         <v>15020</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>42</v>
@@ -3096,7 +3093,7 @@
         <v>19103</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>205</v>
@@ -3237,10 +3234,10 @@
         <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -3249,13 +3246,13 @@
         <v>5079</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,7 +3308,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3323,13 +3320,13 @@
         <v>6888</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -3338,13 +3335,13 @@
         <v>7500</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>27</v>
@@ -3353,13 +3350,13 @@
         <v>14388</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3371,13 @@
         <v>18877</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>38</v>
@@ -3389,13 +3386,13 @@
         <v>19090</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>27</v>
+        <v>244</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M35" s="7">
         <v>71</v>
@@ -3404,13 +3401,13 @@
         <v>37967</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,13 +3422,13 @@
         <v>42390</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>102</v>
@@ -3440,13 +3437,13 @@
         <v>49168</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M36" s="7">
         <v>174</v>
@@ -3455,13 +3452,13 @@
         <v>91558</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3473,13 @@
         <v>132471</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>216</v>
@@ -3491,13 +3488,13 @@
         <v>131679</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M37" s="7">
         <v>394</v>
@@ -3506,13 +3503,13 @@
         <v>264150</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,13 +3524,13 @@
         <v>76597</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H38" s="7">
         <v>88</v>
@@ -3542,13 +3539,13 @@
         <v>68185</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M38" s="7">
         <v>165</v>
@@ -3557,13 +3554,13 @@
         <v>144782</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,7 +3616,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3631,13 +3628,13 @@
         <v>10705</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>279</v>
+        <v>205</v>
       </c>
       <c r="H40" s="7">
         <v>20</v>
@@ -3646,13 +3643,13 @@
         <v>14798</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M40" s="7">
         <v>31</v>
@@ -3661,13 +3658,13 @@
         <v>25503</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3679,13 @@
         <v>40952</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H41" s="7">
         <v>125</v>
@@ -3697,13 +3694,13 @@
         <v>91393</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>289</v>
+        <v>143</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="M41" s="7">
         <v>164</v>
@@ -3712,13 +3709,13 @@
         <v>132345</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3730,13 @@
         <v>305783</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H42" s="7">
         <v>460</v>
@@ -3748,13 +3745,13 @@
         <v>443996</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="M42" s="7">
         <v>762</v>
@@ -3763,13 +3760,13 @@
         <v>749779</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3781,13 @@
         <v>144585</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H43" s="7">
         <v>213</v>
@@ -3799,13 +3796,13 @@
         <v>149768</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="M43" s="7">
         <v>354</v>
@@ -3814,13 +3811,13 @@
         <v>294353</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,13 +3832,13 @@
         <v>125729</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H44" s="7">
         <v>142</v>
@@ -3850,13 +3847,13 @@
         <v>104248</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M44" s="7">
         <v>248</v>
@@ -3865,13 +3862,13 @@
         <v>229978</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,7 +3924,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3939,13 +3936,13 @@
         <v>5920</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H46" s="7">
         <v>9</v>
@@ -3954,13 +3951,13 @@
         <v>8099</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>325</v>
+        <v>17</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>111</v>
+        <v>321</v>
       </c>
       <c r="M46" s="7">
         <v>15</v>
@@ -3969,13 +3966,13 @@
         <v>14018</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +3987,13 @@
         <v>36648</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>331</v>
+        <v>206</v>
       </c>
       <c r="H47" s="7">
         <v>100</v>
@@ -4005,13 +4002,13 @@
         <v>73891</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M47" s="7">
         <v>137</v>
@@ -4020,13 +4017,13 @@
         <v>110539</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +4038,13 @@
         <v>597633</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H48" s="7">
         <v>736</v>
@@ -4056,13 +4053,13 @@
         <v>584740</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="M48" s="7">
         <v>1278</v>
@@ -4071,13 +4068,13 @@
         <v>1182373</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4089,13 @@
         <v>153411</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>146</v>
+        <v>343</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H49" s="7">
         <v>157</v>
@@ -4107,13 +4104,13 @@
         <v>147157</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>255</v>
+        <v>346</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M49" s="7">
         <v>281</v>
@@ -4122,13 +4119,13 @@
         <v>300568</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>103</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4140,13 @@
         <v>65817</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H50" s="7">
         <v>60</v>
@@ -4158,13 +4155,13 @@
         <v>54547</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M50" s="7">
         <v>113</v>
@@ -4173,13 +4170,13 @@
         <v>120364</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4244,13 @@
         <v>34175</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="G52" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H52" s="7">
         <v>80</v>
@@ -4265,10 +4262,10 @@
         <v>363</v>
       </c>
       <c r="K52" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M52" s="7">
         <v>119</v>
@@ -4283,7 +4280,7 @@
         <v>366</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>148</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4295,13 @@
         <v>181828</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="H53" s="7">
         <v>482</v>
@@ -4433,10 +4430,10 @@
         <v>391</v>
       </c>
       <c r="P55" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,13 +4448,13 @@
         <v>532896</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H56" s="7">
         <v>535</v>
@@ -4466,13 +4463,13 @@
         <v>454770</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M56" s="7">
         <v>966</v>
@@ -4481,13 +4478,13 @@
         <v>987667</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,7 +4540,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P07B_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P07B_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89A2D334-50D7-408E-A006-4361D7B003C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDFB5DD2-D48F-4461-B715-B4897FFB15AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4BC638B0-6D19-4E65-94AC-5EB4554380D8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{23082CE7-C2A9-43C5-A030-2BD26049050D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FCFA0E-0A8B-4DA5-9DE8-D4F19C64561E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC64E50-3AF5-4145-A62C-487A28C9D178}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P07B_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P07B_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDFB5DD2-D48F-4461-B715-B4897FFB15AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB0A9FC4-7BCD-4297-9D34-9B952AB5442F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{23082CE7-C2A9-43C5-A030-2BD26049050D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{18C1DC74-1354-4C73-949E-43A28E129B26}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="404">
   <si>
     <t>Población según salud mental autopercibida en 2023 (Tasa respuesta: 99,99%)</t>
   </si>
@@ -83,151 +83,154 @@
     <t>0,16%</t>
   </si>
   <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>Buena</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>Muy buena</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>Buena</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>Muy buena</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>Excelente</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
   </si>
   <si>
     <t>0,48%</t>
@@ -236,1012 +239,1012 @@
     <t>0,2%</t>
   </si>
   <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
   </si>
   <si>
     <t>17,35%</t>
   </si>
   <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
     <t>11,86%</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1656,7 +1659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC64E50-3AF5-4145-A62C-487A28C9D178}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76BE3A0-BA9D-419B-9CD1-D4AE969C8E1A}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2103,13 +2106,13 @@
         <v>3718</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2118,13 +2121,13 @@
         <v>5129</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2139,13 +2142,13 @@
         <v>25910</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>44</v>
@@ -2154,13 +2157,13 @@
         <v>31655</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
@@ -2169,13 +2172,13 @@
         <v>57565</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,13 +2193,13 @@
         <v>125121</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>252</v>
@@ -2205,13 +2208,13 @@
         <v>179583</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>356</v>
@@ -2220,13 +2223,13 @@
         <v>304704</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,13 +2244,13 @@
         <v>259821</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>338</v>
@@ -2256,13 +2259,13 @@
         <v>270849</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>531</v>
@@ -2271,13 +2274,13 @@
         <v>530671</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,13 +2295,13 @@
         <v>107034</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>78</v>
@@ -2307,13 +2310,13 @@
         <v>68761</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>143</v>
@@ -2322,13 +2325,13 @@
         <v>175795</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,7 +2387,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2396,13 +2399,13 @@
         <v>3271</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2411,10 +2414,10 @@
         <v>4611</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>108</v>
@@ -2567,10 +2570,10 @@
         <v>133</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M19" s="7">
         <v>475</v>
@@ -2579,13 +2582,13 @@
         <v>374662</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2603,13 @@
         <v>41353</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -2615,13 +2618,13 @@
         <v>36224</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>76</v>
@@ -2630,13 +2633,13 @@
         <v>77576</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,7 +2695,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2704,13 +2707,13 @@
         <v>4722</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -2719,10 +2722,10 @@
         <v>12760</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>153</v>
@@ -2734,13 +2737,13 @@
         <v>17482</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,13 +2758,13 @@
         <v>30935</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>65</v>
@@ -2770,13 +2773,13 @@
         <v>51394</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>94</v>
@@ -2785,13 +2788,13 @@
         <v>82329</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,13 +2809,13 @@
         <v>110130</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>230</v>
@@ -2821,13 +2824,13 @@
         <v>135429</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>341</v>
@@ -2836,13 +2839,13 @@
         <v>245559</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2857,13 +2860,13 @@
         <v>101155</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>188</v>
@@ -2872,13 +2875,13 @@
         <v>127863</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>279</v>
@@ -2887,13 +2890,13 @@
         <v>229018</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,10 +2911,10 @@
         <v>75298</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>185</v>
@@ -2929,7 +2932,7 @@
         <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>153</v>
@@ -2938,13 +2941,13 @@
         <v>176408</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,7 +3003,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3012,7 +3015,7 @@
         <v>1257</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
@@ -3066,10 +3069,10 @@
         <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>35</v>
@@ -3078,13 +3081,13 @@
         <v>15020</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>42</v>
@@ -3093,7 +3096,7 @@
         <v>19103</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>205</v>
@@ -3234,10 +3237,10 @@
         <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -3246,13 +3249,13 @@
         <v>5079</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,7 +3311,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3320,13 +3323,13 @@
         <v>6888</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>105</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -3335,13 +3338,13 @@
         <v>7500</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>27</v>
@@ -3350,13 +3353,13 @@
         <v>14388</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,13 +3374,13 @@
         <v>18877</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>27</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>38</v>
@@ -3386,13 +3389,13 @@
         <v>19090</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M35" s="7">
         <v>71</v>
@@ -3401,13 +3404,13 @@
         <v>37967</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,13 +3425,13 @@
         <v>42390</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>102</v>
@@ -3437,13 +3440,13 @@
         <v>49168</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M36" s="7">
         <v>174</v>
@@ -3452,13 +3455,13 @@
         <v>91558</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,13 +3476,13 @@
         <v>132471</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>216</v>
@@ -3488,13 +3491,13 @@
         <v>131679</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>394</v>
@@ -3503,13 +3506,13 @@
         <v>264150</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,13 +3527,13 @@
         <v>76597</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H38" s="7">
         <v>88</v>
@@ -3539,13 +3542,13 @@
         <v>68185</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M38" s="7">
         <v>165</v>
@@ -3554,13 +3557,13 @@
         <v>144782</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,7 +3619,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3628,13 +3631,13 @@
         <v>10705</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>205</v>
+        <v>279</v>
       </c>
       <c r="H40" s="7">
         <v>20</v>
@@ -3643,13 +3646,13 @@
         <v>14798</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M40" s="7">
         <v>31</v>
@@ -3658,13 +3661,13 @@
         <v>25503</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,13 +3682,13 @@
         <v>40952</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H41" s="7">
         <v>125</v>
@@ -3694,13 +3697,13 @@
         <v>91393</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>143</v>
+        <v>289</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="M41" s="7">
         <v>164</v>
@@ -3709,13 +3712,13 @@
         <v>132345</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,13 +3733,13 @@
         <v>305783</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="H42" s="7">
         <v>460</v>
@@ -3745,13 +3748,13 @@
         <v>443996</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="M42" s="7">
         <v>762</v>
@@ -3760,13 +3763,13 @@
         <v>749779</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3784,13 @@
         <v>144585</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H43" s="7">
         <v>213</v>
@@ -3796,13 +3799,13 @@
         <v>149768</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="M43" s="7">
         <v>354</v>
@@ -3811,13 +3814,13 @@
         <v>294353</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3835,13 @@
         <v>125729</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H44" s="7">
         <v>142</v>
@@ -3847,13 +3850,13 @@
         <v>104248</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M44" s="7">
         <v>248</v>
@@ -3862,13 +3865,13 @@
         <v>229978</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,7 +3927,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3936,13 +3939,13 @@
         <v>5920</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H46" s="7">
         <v>9</v>
@@ -3951,13 +3954,13 @@
         <v>8099</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>320</v>
+        <v>20</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>17</v>
+        <v>325</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>321</v>
+        <v>111</v>
       </c>
       <c r="M46" s="7">
         <v>15</v>
@@ -3966,13 +3969,13 @@
         <v>14018</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,13 +3990,13 @@
         <v>36648</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>206</v>
+        <v>331</v>
       </c>
       <c r="H47" s="7">
         <v>100</v>
@@ -4002,13 +4005,13 @@
         <v>73891</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="M47" s="7">
         <v>137</v>
@@ -4017,13 +4020,13 @@
         <v>110539</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4041,13 @@
         <v>597633</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H48" s="7">
         <v>736</v>
@@ -4053,13 +4056,13 @@
         <v>584740</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="M48" s="7">
         <v>1278</v>
@@ -4068,13 +4071,13 @@
         <v>1182373</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4092,13 @@
         <v>153411</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>343</v>
+        <v>146</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H49" s="7">
         <v>157</v>
@@ -4104,13 +4107,13 @@
         <v>147157</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>346</v>
+        <v>255</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M49" s="7">
         <v>281</v>
@@ -4119,13 +4122,13 @@
         <v>300568</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>350</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4143,13 @@
         <v>65817</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H50" s="7">
         <v>60</v>
@@ -4155,13 +4158,13 @@
         <v>54547</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M50" s="7">
         <v>113</v>
@@ -4170,13 +4173,13 @@
         <v>120364</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>358</v>
+        <v>71</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4247,13 @@
         <v>34175</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="H52" s="7">
         <v>80</v>
@@ -4262,10 +4265,10 @@
         <v>363</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>66</v>
+        <v>364</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>364</v>
+        <v>152</v>
       </c>
       <c r="M52" s="7">
         <v>119</v>
@@ -4280,7 +4283,7 @@
         <v>366</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>367</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4298,13 @@
         <v>181828</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H53" s="7">
         <v>482</v>
@@ -4430,10 +4433,10 @@
         <v>391</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>188</v>
+        <v>392</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,13 +4451,13 @@
         <v>532896</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H56" s="7">
         <v>535</v>
@@ -4463,13 +4466,13 @@
         <v>454770</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M56" s="7">
         <v>966</v>
@@ -4478,13 +4481,13 @@
         <v>987667</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,7 +4543,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P07B_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P07B_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB0A9FC4-7BCD-4297-9D34-9B952AB5442F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70CA6029-81E1-4AD2-B599-C9AE708F06EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{18C1DC74-1354-4C73-949E-43A28E129B26}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{43043AC7-B1D8-4806-99FD-A0ED83F2ECCF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="401">
   <si>
     <t>Población según salud mental autopercibida en 2023 (Tasa respuesta: 99,99%)</t>
   </si>
@@ -83,1168 +83,1159 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,95%</t>
+    <t>0,94%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,5%</t>
+    <t>0,47%</t>
   </si>
   <si>
     <t>Regular</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>Buena</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>Muy buena</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>Buena</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>Muy buena</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>Excelente</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
   </si>
   <si>
     <t>9,71%</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
   </si>
   <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
   </si>
   <si>
     <t>7,1%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1659,7 +1650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76BE3A0-BA9D-419B-9CD1-D4AE969C8E1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8454893C-8C1B-4892-9221-157CCA8C9A9F}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1795,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1810,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1831,7 +1822,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>6397</v>
+        <v>7301</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1846,7 +1837,7 @@
         <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>11706</v>
+        <v>12103</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -1861,7 +1852,7 @@
         <v>32</v>
       </c>
       <c r="N5" s="7">
-        <v>18103</v>
+        <v>19404</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>25</v>
@@ -1882,7 +1873,7 @@
         <v>108</v>
       </c>
       <c r="D6" s="7">
-        <v>81070</v>
+        <v>91753</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>29</v>
@@ -1897,7 +1888,7 @@
         <v>188</v>
       </c>
       <c r="I6" s="7">
-        <v>92171</v>
+        <v>98245</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>32</v>
@@ -1912,7 +1903,7 @@
         <v>296</v>
       </c>
       <c r="N6" s="7">
-        <v>173240</v>
+        <v>189997</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>35</v>
@@ -1933,7 +1924,7 @@
         <v>182</v>
       </c>
       <c r="D7" s="7">
-        <v>132676</v>
+        <v>156457</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -1948,7 +1939,7 @@
         <v>297</v>
       </c>
       <c r="I7" s="7">
-        <v>149555</v>
+        <v>159277</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>42</v>
@@ -1963,7 +1954,7 @@
         <v>479</v>
       </c>
       <c r="N7" s="7">
-        <v>282230</v>
+        <v>315733</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>45</v>
@@ -1984,7 +1975,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="7">
-        <v>40155</v>
+        <v>55932</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -1999,7 +1990,7 @@
         <v>28</v>
       </c>
       <c r="I8" s="7">
-        <v>17529</v>
+        <v>19542</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>52</v>
@@ -2014,7 +2005,7 @@
         <v>61</v>
       </c>
       <c r="N8" s="7">
-        <v>57684</v>
+        <v>75474</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>55</v>
@@ -2035,7 +2026,7 @@
         <v>331</v>
       </c>
       <c r="D9" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>58</v>
@@ -2050,7 +2041,7 @@
         <v>538</v>
       </c>
       <c r="I9" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>58</v>
@@ -2065,7 +2056,7 @@
         <v>869</v>
       </c>
       <c r="N9" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -2088,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1411</v>
+        <v>1324</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2103,7 +2094,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>3718</v>
+        <v>3372</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>62</v>
@@ -2118,7 +2109,7 @@
         <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>5129</v>
+        <v>4696</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>65</v>
@@ -2139,7 +2130,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="7">
-        <v>25910</v>
+        <v>25392</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>68</v>
@@ -2154,7 +2145,7 @@
         <v>44</v>
       </c>
       <c r="I11" s="7">
-        <v>31655</v>
+        <v>28906</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>71</v>
@@ -2169,7 +2160,7 @@
         <v>63</v>
       </c>
       <c r="N11" s="7">
-        <v>57565</v>
+        <v>54297</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>74</v>
@@ -2190,7 +2181,7 @@
         <v>104</v>
       </c>
       <c r="D12" s="7">
-        <v>125121</v>
+        <v>122581</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>77</v>
@@ -2205,7 +2196,7 @@
         <v>252</v>
       </c>
       <c r="I12" s="7">
-        <v>179583</v>
+        <v>166780</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>80</v>
@@ -2220,7 +2211,7 @@
         <v>356</v>
       </c>
       <c r="N12" s="7">
-        <v>304704</v>
+        <v>289361</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>83</v>
@@ -2241,7 +2232,7 @@
         <v>193</v>
       </c>
       <c r="D13" s="7">
-        <v>259821</v>
+        <v>258846</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>86</v>
@@ -2256,7 +2247,7 @@
         <v>338</v>
       </c>
       <c r="I13" s="7">
-        <v>270849</v>
+        <v>251706</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>89</v>
@@ -2271,7 +2262,7 @@
         <v>531</v>
       </c>
       <c r="N13" s="7">
-        <v>530671</v>
+        <v>510552</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>92</v>
@@ -2292,7 +2283,7 @@
         <v>65</v>
       </c>
       <c r="D14" s="7">
-        <v>107034</v>
+        <v>110247</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>95</v>
@@ -2307,7 +2298,7 @@
         <v>78</v>
       </c>
       <c r="I14" s="7">
-        <v>68761</v>
+        <v>64206</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>98</v>
@@ -2322,7 +2313,7 @@
         <v>143</v>
       </c>
       <c r="N14" s="7">
-        <v>175795</v>
+        <v>174453</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>101</v>
@@ -2343,7 +2334,7 @@
         <v>382</v>
       </c>
       <c r="D15" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>58</v>
@@ -2358,7 +2349,7 @@
         <v>717</v>
       </c>
       <c r="I15" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>58</v>
@@ -2373,7 +2364,7 @@
         <v>1099</v>
       </c>
       <c r="N15" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>58</v>
@@ -2396,7 +2387,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>3271</v>
+        <v>3137</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>67</v>
@@ -2411,31 +2402,31 @@
         <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>4611</v>
+        <v>4304</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>7883</v>
+        <v>7441</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,43 +2438,43 @@
         <v>23</v>
       </c>
       <c r="D17" s="7">
-        <v>18025</v>
+        <v>17340</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
       </c>
       <c r="I17" s="7">
-        <v>31327</v>
+        <v>28967</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>74</v>
       </c>
       <c r="N17" s="7">
-        <v>49352</v>
+        <v>46307</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>120</v>
@@ -2498,7 +2489,7 @@
         <v>94</v>
       </c>
       <c r="D18" s="7">
-        <v>76189</v>
+        <v>73363</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>121</v>
@@ -2513,7 +2504,7 @@
         <v>165</v>
       </c>
       <c r="I18" s="7">
-        <v>109863</v>
+        <v>102665</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>124</v>
@@ -2528,7 +2519,7 @@
         <v>259</v>
       </c>
       <c r="N18" s="7">
-        <v>186052</v>
+        <v>176028</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>127</v>
@@ -2549,7 +2540,7 @@
         <v>201</v>
       </c>
       <c r="D19" s="7">
-        <v>183402</v>
+        <v>180800</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>130</v>
@@ -2564,31 +2555,31 @@
         <v>274</v>
       </c>
       <c r="I19" s="7">
-        <v>191260</v>
+        <v>179266</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>133</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M19" s="7">
         <v>475</v>
       </c>
       <c r="N19" s="7">
-        <v>374662</v>
+        <v>360065</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,46 +2591,46 @@
         <v>38</v>
       </c>
       <c r="D20" s="7">
-        <v>41353</v>
+        <v>41410</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
       </c>
       <c r="I20" s="7">
-        <v>36224</v>
+        <v>33926</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>76</v>
       </c>
       <c r="N20" s="7">
-        <v>77576</v>
+        <v>75336</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,7 +2642,7 @@
         <v>360</v>
       </c>
       <c r="D21" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>58</v>
@@ -2666,7 +2657,7 @@
         <v>536</v>
       </c>
       <c r="I21" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -2681,7 +2672,7 @@
         <v>896</v>
       </c>
       <c r="N21" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -2695,7 +2686,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2704,46 +2695,46 @@
         <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>4722</v>
+        <v>4467</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
       </c>
       <c r="I22" s="7">
-        <v>12760</v>
+        <v>11528</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
       </c>
       <c r="N22" s="7">
-        <v>17482</v>
+        <v>15995</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,46 +2746,46 @@
         <v>29</v>
       </c>
       <c r="D23" s="7">
-        <v>30935</v>
+        <v>29957</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>65</v>
       </c>
       <c r="I23" s="7">
-        <v>51394</v>
+        <v>103134</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>94</v>
       </c>
       <c r="N23" s="7">
-        <v>82329</v>
+        <v>133091</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,40 +2797,40 @@
         <v>111</v>
       </c>
       <c r="D24" s="7">
-        <v>110130</v>
+        <v>105405</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>230</v>
       </c>
       <c r="I24" s="7">
-        <v>135429</v>
+        <v>125694</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>341</v>
       </c>
       <c r="N24" s="7">
-        <v>245559</v>
+        <v>231099</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>172</v>
@@ -2857,7 +2848,7 @@
         <v>91</v>
       </c>
       <c r="D25" s="7">
-        <v>101155</v>
+        <v>97836</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>174</v>
@@ -2872,7 +2863,7 @@
         <v>188</v>
       </c>
       <c r="I25" s="7">
-        <v>127863</v>
+        <v>119029</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>177</v>
@@ -2887,16 +2878,16 @@
         <v>279</v>
       </c>
       <c r="N25" s="7">
-        <v>229018</v>
+        <v>216864</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,37 +2899,37 @@
         <v>57</v>
       </c>
       <c r="D26" s="7">
-        <v>75298</v>
+        <v>74892</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>96</v>
       </c>
       <c r="I26" s="7">
-        <v>101110</v>
+        <v>116333</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>153</v>
       </c>
       <c r="N26" s="7">
-        <v>176408</v>
+        <v>191224</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>188</v>
@@ -2959,7 +2950,7 @@
         <v>292</v>
       </c>
       <c r="D27" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>58</v>
@@ -2974,7 +2965,7 @@
         <v>599</v>
       </c>
       <c r="I27" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>58</v>
@@ -2989,7 +2980,7 @@
         <v>891</v>
       </c>
       <c r="N27" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>58</v>
@@ -3012,7 +3003,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="7">
-        <v>1257</v>
+        <v>1122</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>192</v>
@@ -3027,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>194</v>
@@ -3042,7 +3033,7 @@
         <v>3</v>
       </c>
       <c r="N28" s="7">
-        <v>1735</v>
+        <v>1555</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>196</v>
@@ -3051,7 +3042,7 @@
         <v>197</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>198</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,46 +3054,46 @@
         <v>7</v>
       </c>
       <c r="D29" s="7">
-        <v>4083</v>
+        <v>3682</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="H29" s="7">
         <v>35</v>
       </c>
       <c r="I29" s="7">
-        <v>15020</v>
+        <v>13558</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>74</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>42</v>
       </c>
       <c r="N29" s="7">
-        <v>19103</v>
+        <v>17240</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,46 +3105,46 @@
         <v>234</v>
       </c>
       <c r="D30" s="7">
-        <v>159097</v>
+        <v>145211</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>422</v>
       </c>
       <c r="I30" s="7">
-        <v>217849</v>
+        <v>222331</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>656</v>
       </c>
       <c r="N30" s="7">
-        <v>376946</v>
+        <v>367543</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,46 +3156,46 @@
         <v>34</v>
       </c>
       <c r="D31" s="7">
-        <v>31397</v>
+        <v>27882</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>31</v>
       </c>
       <c r="I31" s="7">
-        <v>21394</v>
+        <v>18085</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>65</v>
       </c>
       <c r="N31" s="7">
-        <v>52792</v>
+        <v>45967</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,46 +3207,46 @@
         <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>913</v>
+        <v>845</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>225</v>
+        <v>17</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
       </c>
       <c r="I32" s="7">
-        <v>4167</v>
+        <v>3826</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
       </c>
       <c r="N32" s="7">
-        <v>5079</v>
+        <v>4671</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,7 +3258,7 @@
         <v>279</v>
       </c>
       <c r="D33" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>58</v>
@@ -3282,7 +3273,7 @@
         <v>494</v>
       </c>
       <c r="I33" s="7">
-        <v>258908</v>
+        <v>258234</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>58</v>
@@ -3297,7 +3288,7 @@
         <v>773</v>
       </c>
       <c r="N33" s="7">
-        <v>455656</v>
+        <v>436976</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>58</v>
@@ -3311,7 +3302,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3320,46 +3311,46 @@
         <v>11</v>
       </c>
       <c r="D34" s="7">
-        <v>6888</v>
+        <v>6577</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>107</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
       </c>
       <c r="I34" s="7">
-        <v>7500</v>
+        <v>6972</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M34" s="7">
         <v>27</v>
       </c>
       <c r="N34" s="7">
-        <v>14388</v>
+        <v>13549</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,46 +3362,46 @@
         <v>33</v>
       </c>
       <c r="D35" s="7">
-        <v>18877</v>
+        <v>17975</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>38</v>
       </c>
       <c r="I35" s="7">
-        <v>19090</v>
+        <v>17729</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>27</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>71</v>
       </c>
       <c r="N35" s="7">
-        <v>37967</v>
+        <v>35704</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,46 +3413,46 @@
         <v>72</v>
       </c>
       <c r="D36" s="7">
-        <v>42390</v>
+        <v>40501</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>102</v>
       </c>
       <c r="I36" s="7">
-        <v>49168</v>
+        <v>45747</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>174</v>
       </c>
       <c r="N36" s="7">
-        <v>91558</v>
+        <v>86249</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,46 +3464,46 @@
         <v>178</v>
       </c>
       <c r="D37" s="7">
-        <v>132471</v>
+        <v>128969</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>216</v>
       </c>
       <c r="I37" s="7">
-        <v>131679</v>
+        <v>123059</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>263</v>
-      </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M37" s="7">
         <v>394</v>
       </c>
       <c r="N37" s="7">
-        <v>264150</v>
+        <v>252028</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,46 +3515,46 @@
         <v>77</v>
       </c>
       <c r="D38" s="7">
-        <v>76597</v>
+        <v>75613</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H38" s="7">
         <v>88</v>
       </c>
       <c r="I38" s="7">
-        <v>68185</v>
+        <v>63550</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M38" s="7">
         <v>165</v>
       </c>
       <c r="N38" s="7">
-        <v>144782</v>
+        <v>139163</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>273</v>
+        <v>169</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,7 +3566,7 @@
         <v>371</v>
       </c>
       <c r="D39" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>58</v>
@@ -3590,7 +3581,7 @@
         <v>460</v>
       </c>
       <c r="I39" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>58</v>
@@ -3605,7 +3596,7 @@
         <v>831</v>
       </c>
       <c r="N39" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>58</v>
@@ -3619,7 +3610,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3628,46 +3619,46 @@
         <v>11</v>
       </c>
       <c r="D40" s="7">
-        <v>10705</v>
+        <v>10445</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H40" s="7">
         <v>20</v>
       </c>
       <c r="I40" s="7">
-        <v>14798</v>
+        <v>13655</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M40" s="7">
         <v>31</v>
       </c>
       <c r="N40" s="7">
-        <v>25503</v>
+        <v>24101</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>283</v>
+        <v>15</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,46 +3670,46 @@
         <v>39</v>
       </c>
       <c r="D41" s="7">
-        <v>40952</v>
+        <v>40518</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>287</v>
+        <v>56</v>
       </c>
       <c r="H41" s="7">
         <v>125</v>
       </c>
       <c r="I41" s="7">
-        <v>91393</v>
+        <v>84763</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M41" s="7">
         <v>164</v>
       </c>
       <c r="N41" s="7">
-        <v>132345</v>
+        <v>125280</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,46 +3721,46 @@
         <v>302</v>
       </c>
       <c r="D42" s="7">
-        <v>305783</v>
+        <v>299845</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H42" s="7">
         <v>460</v>
       </c>
       <c r="I42" s="7">
-        <v>443996</v>
+        <v>515812</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="M42" s="7">
         <v>762</v>
       </c>
       <c r="N42" s="7">
-        <v>749779</v>
+        <v>815657</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,46 +3772,46 @@
         <v>141</v>
       </c>
       <c r="D43" s="7">
-        <v>144585</v>
+        <v>141533</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H43" s="7">
         <v>213</v>
       </c>
       <c r="I43" s="7">
-        <v>149768</v>
+        <v>138900</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="M43" s="7">
         <v>354</v>
       </c>
       <c r="N43" s="7">
-        <v>294353</v>
+        <v>280433</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,46 +3823,46 @@
         <v>106</v>
       </c>
       <c r="D44" s="7">
-        <v>125729</v>
+        <v>131938</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H44" s="7">
         <v>142</v>
       </c>
       <c r="I44" s="7">
-        <v>104248</v>
+        <v>96135</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M44" s="7">
         <v>248</v>
       </c>
       <c r="N44" s="7">
-        <v>229978</v>
+        <v>228073</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,7 +3874,7 @@
         <v>599</v>
       </c>
       <c r="D45" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>58</v>
@@ -3898,7 +3889,7 @@
         <v>960</v>
       </c>
       <c r="I45" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>58</v>
@@ -3913,7 +3904,7 @@
         <v>1559</v>
       </c>
       <c r="N45" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>58</v>
@@ -3927,7 +3918,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3936,46 +3927,46 @@
         <v>6</v>
       </c>
       <c r="D46" s="7">
-        <v>5920</v>
+        <v>4923</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H46" s="7">
         <v>9</v>
       </c>
       <c r="I46" s="7">
-        <v>8099</v>
+        <v>6472</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>111</v>
+        <v>322</v>
       </c>
       <c r="M46" s="7">
         <v>15</v>
       </c>
       <c r="N46" s="7">
-        <v>14018</v>
+        <v>11395</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>327</v>
+        <v>150</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>328</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,46 +3978,46 @@
         <v>37</v>
       </c>
       <c r="D47" s="7">
-        <v>36648</v>
+        <v>30823</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H47" s="7">
         <v>100</v>
       </c>
       <c r="I47" s="7">
-        <v>73891</v>
+        <v>61808</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M47" s="7">
         <v>137</v>
       </c>
       <c r="N47" s="7">
-        <v>110539</v>
+        <v>92630</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,46 +4029,46 @@
         <v>542</v>
       </c>
       <c r="D48" s="7">
-        <v>597633</v>
+        <v>709115</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H48" s="7">
         <v>736</v>
       </c>
       <c r="I48" s="7">
-        <v>584740</v>
+        <v>485354</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="M48" s="7">
         <v>1278</v>
       </c>
       <c r="N48" s="7">
-        <v>1182373</v>
+        <v>1194470</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,46 +4080,46 @@
         <v>124</v>
       </c>
       <c r="D49" s="7">
-        <v>153411</v>
+        <v>128435</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>146</v>
+        <v>343</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H49" s="7">
         <v>157</v>
       </c>
       <c r="I49" s="7">
-        <v>147157</v>
+        <v>119147</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>255</v>
+        <v>346</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M49" s="7">
         <v>281</v>
       </c>
       <c r="N49" s="7">
-        <v>300568</v>
+        <v>247583</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>352</v>
+        <v>146</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>103</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,46 +4131,46 @@
         <v>53</v>
       </c>
       <c r="D50" s="7">
-        <v>65817</v>
+        <v>55424</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H50" s="7">
         <v>60</v>
       </c>
       <c r="I50" s="7">
-        <v>54547</v>
+        <v>44950</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M50" s="7">
         <v>113</v>
       </c>
       <c r="N50" s="7">
-        <v>120364</v>
+        <v>100374</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>71</v>
+        <v>357</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,7 +4182,7 @@
         <v>762</v>
       </c>
       <c r="D51" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>58</v>
@@ -4206,7 +4197,7 @@
         <v>1062</v>
       </c>
       <c r="I51" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>58</v>
@@ -4221,7 +4212,7 @@
         <v>1824</v>
       </c>
       <c r="N51" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>58</v>
@@ -4244,46 +4235,46 @@
         <v>39</v>
       </c>
       <c r="D52" s="7">
-        <v>34175</v>
+        <v>31996</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H52" s="7">
         <v>80</v>
       </c>
       <c r="I52" s="7">
-        <v>52406</v>
+        <v>47204</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K52" s="7" t="s">
-        <v>364</v>
-      </c>
       <c r="L52" s="7" t="s">
-        <v>152</v>
+        <v>279</v>
       </c>
       <c r="M52" s="7">
         <v>119</v>
       </c>
       <c r="N52" s="7">
-        <v>86581</v>
+        <v>79200</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,46 +4286,46 @@
         <v>195</v>
       </c>
       <c r="D53" s="7">
-        <v>181828</v>
+        <v>172987</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H53" s="7">
         <v>482</v>
       </c>
       <c r="I53" s="7">
-        <v>325475</v>
+        <v>350968</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="L53" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M53" s="7">
         <v>677</v>
       </c>
       <c r="N53" s="7">
-        <v>507303</v>
+        <v>523955</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="Q53" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,46 +4337,46 @@
         <v>1567</v>
       </c>
       <c r="D54" s="7">
-        <v>1497411</v>
+        <v>1587776</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H54" s="7">
         <v>2555</v>
       </c>
       <c r="I54" s="7">
-        <v>1812799</v>
+        <v>1762628</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M54" s="7">
         <v>4122</v>
       </c>
       <c r="N54" s="7">
-        <v>3310210</v>
+        <v>3350404</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="Q54" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,46 +4388,46 @@
         <v>1144</v>
       </c>
       <c r="D55" s="7">
-        <v>1138918</v>
+        <v>1120757</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H55" s="7">
         <v>1714</v>
       </c>
       <c r="I55" s="7">
-        <v>1189526</v>
+        <v>1108468</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M55" s="7">
         <v>2858</v>
       </c>
       <c r="N55" s="7">
-        <v>2328444</v>
+        <v>2229225</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>392</v>
+        <v>169</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,46 +4439,46 @@
         <v>431</v>
       </c>
       <c r="D56" s="7">
-        <v>532896</v>
+        <v>546300</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H56" s="7">
         <v>535</v>
       </c>
       <c r="I56" s="7">
-        <v>454770</v>
+        <v>442467</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M56" s="7">
         <v>966</v>
       </c>
       <c r="N56" s="7">
-        <v>987667</v>
+        <v>988768</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,7 +4490,7 @@
         <v>3376</v>
       </c>
       <c r="D57" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>58</v>
@@ -4514,7 +4505,7 @@
         <v>5366</v>
       </c>
       <c r="I57" s="7">
-        <v>3834976</v>
+        <v>3711735</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>58</v>
@@ -4529,7 +4520,7 @@
         <v>8742</v>
       </c>
       <c r="N57" s="7">
-        <v>7220204</v>
+        <v>7171552</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>58</v>
@@ -4543,7 +4534,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
